--- a/GA/src/cd.xlsx
+++ b/GA/src/cd.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BC16F5-7B92-3548-91DC-A6CA23713C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEAF16-0464-D54D-AEE4-776FB6BD525A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38040" yWindow="6720" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{1DCB2458-90EB-0E4E-A7B8-DE4562CA0938}"/>
+    <workbookView xWindow="71000" yWindow="7400" windowWidth="27240" windowHeight="16440" xr2:uid="{1DCB2458-90EB-0E4E-A7B8-DE4562CA0938}"/>
   </bookViews>
   <sheets>
     <sheet name="wholesalerA" sheetId="1" r:id="rId1"/>
     <sheet name="wholesalerB" sheetId="2" r:id="rId2"/>
+    <sheet name="wholesalerC" sheetId="3" r:id="rId3"/>
+    <sheet name="wholesalerD" sheetId="5" r:id="rId4"/>
+    <sheet name="wholesalerE" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
   <si>
     <t>productA</t>
   </si>
@@ -46,6 +49,18 @@
   </si>
   <si>
     <t>retailerB</t>
+  </si>
+  <si>
+    <t>productC</t>
+  </si>
+  <si>
+    <t>retailerC</t>
+  </si>
+  <si>
+    <t>retailerD</t>
+  </si>
+  <si>
+    <t>retailerE</t>
   </si>
 </sst>
 </file>
@@ -423,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310FC8BE-8728-FB46-8640-9BDBC0FAFC48}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -439,27 +454,78 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4</v>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -469,15 +535,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6286A2A-C1F4-FE4C-A155-DAAC495DAD99}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -485,8 +551,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -496,8 +565,11 @@
       <c r="C2" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -506,6 +578,342 @@
       </c>
       <c r="C3" s="4">
         <v>5</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9630EF-10BA-3F4C-A6C4-03EBE175516B}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4144B3E-0146-244F-82B7-BF72562A1B3F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C5762B-382B-BF44-87E2-9A21EF0C9319}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
